--- a/plain_invoices/AMC.xlsx
+++ b/plain_invoices/AMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique Aguiar\Desktop\Canoe_Git\plain_invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E3AF73-58C5-4E17-82A8-666BD3B30C6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8C3BF3-F792-4ADB-BBDF-0D24312CF9C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="3330" windowWidth="19420" windowHeight="10560" tabRatio="700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2286,33 +2286,33 @@
     <xf numFmtId="0" fontId="63" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="9"/>
-    </xf>
     <xf numFmtId="169" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
     </xf>
   </cellXfs>
   <cellStyles count="830">
@@ -3506,8 +3506,8 @@
   </sheetPr>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K28" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3585,13 +3585,13 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="101" t="s">
+      <c r="H4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -3600,13 +3600,13 @@
       <c r="E5" s="10"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="98" t="s">
+      <c r="H5" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -3636,13 +3636,13 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="100" t="s">
+      <c r="H7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -3703,13 +3703,13 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="102" t="s">
+      <c r="H11" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -3723,13 +3723,13 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="103" t="s">
+      <c r="H12" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -3740,13 +3740,13 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="96" t="s">
+      <c r="H13" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -3774,13 +3774,13 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="97" t="s">
+      <c r="H15" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
       <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -3839,7 +3839,7 @@
       <c r="J18" s="50">
         <v>1.1300000000000001</v>
       </c>
-      <c r="K18" s="104"/>
+      <c r="K18" s="96"/>
       <c r="L18" s="39"/>
       <c r="O18" s="17"/>
       <c r="R18" s="17"/>
@@ -4107,12 +4107,12 @@
         <v>40</v>
       </c>
       <c r="J32" s="61">
-        <f>SUMIF($E$28:$E$30,$I32,$J$28:$J$30)</f>
+        <f t="shared" ref="J32:J39" si="1">SUMIF($E$28:$E$30,$I32,$J$28:$J$30)</f>
         <v>0</v>
       </c>
       <c r="K32" s="62"/>
       <c r="L32" s="63">
-        <f>SUMIF($E$28:$E$30,$I32,$L$28:$L$30)</f>
+        <f t="shared" ref="L32:L38" si="2">SUMIF($E$28:$E$30,$I32,$L$28:$L$30)</f>
         <v>0</v>
       </c>
     </row>
@@ -4126,12 +4126,12 @@
         <v>54</v>
       </c>
       <c r="J33" s="61">
-        <f>SUMIF($E$28:$E$30,$I33,$J$28:$J$30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33" s="62"/>
       <c r="L33" s="63">
-        <f>SUMIF($E$28:$E$30,$I33,$L$28:$L$30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4145,12 +4145,12 @@
         <v>55</v>
       </c>
       <c r="J34" s="61">
-        <f>SUMIF($E$28:$E$30,$I34,$J$28:$J$30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K34" s="62"/>
       <c r="L34" s="63">
-        <f>SUMIF($E$28:$E$30,$I34,$L$28:$L$30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4164,12 +4164,12 @@
         <v>46</v>
       </c>
       <c r="J35" s="61">
-        <f>SUMIF($E$28:$E$30,$I35,$J$28:$J$30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35" s="62"/>
       <c r="L35" s="63">
-        <f>SUMIF($E$28:$E$30,$I35,$L$28:$L$30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4183,12 +4183,12 @@
         <v>44</v>
       </c>
       <c r="J36" s="61">
-        <f>SUMIF($E$28:$E$30,$I36,$J$28:$J$30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K36" s="62"/>
       <c r="L36" s="63">
-        <f>SUMIF($E$28:$E$30,$I36,$L$28:$L$30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4202,12 +4202,12 @@
         <v>48</v>
       </c>
       <c r="J37" s="61">
-        <f>SUMIF($E$28:$E$30,$I37,$J$28:$J$30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K37" s="62"/>
       <c r="L37" s="63">
-        <f>SUMIF($E$28:$E$30,$I37,$L$28:$L$30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4221,12 +4221,12 @@
         <v>47</v>
       </c>
       <c r="J38" s="61">
-        <f>SUMIF($E$28:$E$30,$I38,$J$28:$J$30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K38" s="62"/>
       <c r="L38" s="63">
-        <f>SUMIF($E$28:$E$30,$I38,$L$28:$L$30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4240,7 +4240,7 @@
         <v>56</v>
       </c>
       <c r="J39" s="85">
-        <f>SUMIF($E$28:$E$30,$I39,$J$28:$J$30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39" s="62"/>
@@ -4408,16 +4408,16 @@
     <sortCondition ref="E26:E28"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
